--- a/backend/background_sentiment_analysis.xlsx
+++ b/backend/background_sentiment_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C491"/>
+  <dimension ref="A1:C493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>2.46</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>3.46</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>1.39</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.63</v>
+        <v>1.95</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3.24</v>
+        <v>3</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>3.19</v>
+        <v>3</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>2.11</v>
+        <v>2.36</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>4.17</v>
+        <v>4.43</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>3.89</v>
+        <v>4</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>3</v>
+        <v>3.31</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>4</v>
+        <v>3.96</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>2</v>
+        <v>2.48</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>4.42</v>
+        <v>4</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>3</v>
+        <v>3.33</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>3</v>
+        <v>3.26</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>2</v>
+        <v>1.54</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>2.49</v>
+        <v>2</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>4.12</v>
+        <v>4</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>3.34</v>
+        <v>3</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>4</v>
+        <v>4.34</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>3.66</v>
+        <v>4</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>2.79</v>
+        <v>3</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>3.27</v>
+        <v>3</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>3.48</v>
+        <v>3</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>3</v>
+        <v>3.27</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
@@ -7797,6 +7797,36 @@
       <c r="C491" t="inlineStr">
         <is>
           <t>Highly Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Labour</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>2</v>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Private Job</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
